--- a/Team-Data/2008-09/2-23-2008-09.xlsx
+++ b/Team-Data/2008-09/2-23-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E2" t="n">
         <v>32</v>
       </c>
       <c r="F2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="n">
-        <v>0.571</v>
+        <v>0.582</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
@@ -684,13 +751,13 @@
         <v>35.9</v>
       </c>
       <c r="J2" t="n">
-        <v>78.8</v>
+        <v>79</v>
       </c>
       <c r="K2" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L2" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="M2" t="n">
         <v>20.7</v>
@@ -699,28 +766,28 @@
         <v>0.37</v>
       </c>
       <c r="O2" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P2" t="n">
         <v>26</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.732</v>
+        <v>0.735</v>
       </c>
       <c r="R2" t="n">
         <v>10.6</v>
       </c>
       <c r="S2" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T2" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="U2" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="V2" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="W2" t="n">
         <v>7.6</v>
@@ -738,19 +805,19 @@
         <v>20.9</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="AD2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE2" t="n">
         <v>11</v>
       </c>
-      <c r="AE2" t="n">
-        <v>12</v>
-      </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -771,13 +838,13 @@
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN2" t="n">
         <v>14</v>
       </c>
       <c r="AO2" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AP2" t="n">
         <v>10</v>
@@ -789,25 +856,25 @@
         <v>22</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
         <v>19</v>
       </c>
       <c r="AY2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BC2" t="n">
         <v>13</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -863,73 +930,73 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.40000000000001</v>
+        <v>77.2</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N3" t="n">
-        <v>0.392</v>
+        <v>0.384</v>
       </c>
       <c r="O3" t="n">
         <v>20.2</v>
       </c>
       <c r="P3" t="n">
-        <v>26</v>
+        <v>26.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.776</v>
+        <v>0.771</v>
       </c>
       <c r="R3" t="n">
         <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>32.1</v>
+        <v>32</v>
       </c>
       <c r="T3" t="n">
-        <v>43</v>
+        <v>42.8</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.5</v>
       </c>
       <c r="V3" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="W3" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9</v>
+        <v>101.5</v>
       </c>
       <c r="AC3" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF3" t="n">
         <v>3</v>
@@ -950,28 +1017,28 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AM3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR3" t="n">
         <v>18</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AT3" t="n">
         <v>6</v>
@@ -980,22 +1047,22 @@
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW3" t="n">
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AY3" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ3" t="n">
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB3" t="n">
         <v>9</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>22</v>
@@ -1141,7 +1208,7 @@
         <v>19</v>
       </c>
       <c r="AO4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>20</v>
@@ -1159,7 +1226,7 @@
         <v>25</v>
       </c>
       <c r="AU4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AV4" t="n">
         <v>25</v>
@@ -1174,10 +1241,10 @@
         <v>29</v>
       </c>
       <c r="AZ4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BA4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" t="n">
         <v>31</v>
       </c>
       <c r="G5" t="n">
-        <v>0.436</v>
+        <v>0.446</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
@@ -1230,46 +1297,46 @@
         <v>37.6</v>
       </c>
       <c r="J5" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L5" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="M5" t="n">
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.377</v>
+        <v>0.378</v>
       </c>
       <c r="O5" t="n">
-        <v>19.2</v>
+        <v>19.5</v>
       </c>
       <c r="P5" t="n">
-        <v>24.3</v>
+        <v>24.7</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.79</v>
+        <v>0.789</v>
       </c>
       <c r="R5" t="n">
         <v>12</v>
       </c>
       <c r="S5" t="n">
-        <v>30.4</v>
+        <v>30.3</v>
       </c>
       <c r="T5" t="n">
         <v>42.3</v>
       </c>
       <c r="U5" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
         <v>5.7</v>
@@ -1278,28 +1345,28 @@
         <v>5.6</v>
       </c>
       <c r="Z5" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC5" t="n">
-        <v>-1.6</v>
+        <v>-1.4</v>
       </c>
       <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF5" t="n">
         <v>17</v>
       </c>
-      <c r="AE5" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>18</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>19</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1311,7 +1378,7 @@
         <v>6</v>
       </c>
       <c r="AK5" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1320,13 +1387,13 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO5" t="n">
         <v>13</v>
       </c>
       <c r="AP5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ5" t="n">
         <v>8</v>
@@ -1359,7 +1426,7 @@
         <v>20</v>
       </c>
       <c r="BA5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB5" t="n">
         <v>12</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -1394,49 +1461,49 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="n">
         <v>43</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.796</v>
       </c>
       <c r="H6" t="n">
         <v>48.1</v>
       </c>
       <c r="I6" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J6" t="n">
-        <v>78.5</v>
+        <v>78.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.475</v>
+        <v>0.474</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N6" t="n">
-        <v>0.388</v>
+        <v>0.386</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P6" t="n">
-        <v>24.6</v>
+        <v>24.8</v>
       </c>
       <c r="Q6" t="n">
         <v>0.752</v>
       </c>
       <c r="R6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S6" t="n">
         <v>31.1</v>
@@ -1445,10 +1512,10 @@
         <v>41.8</v>
       </c>
       <c r="U6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="W6" t="n">
         <v>7.6</v>
@@ -1460,25 +1527,25 @@
         <v>3.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.2</v>
+        <v>100.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>10.4</v>
+        <v>10.1</v>
       </c>
       <c r="AD6" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AE6" t="n">
         <v>3</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="n">
         <v>2</v>
@@ -1490,25 +1557,25 @@
         <v>10</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>5</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AN6" t="n">
         <v>4</v>
       </c>
       <c r="AO6" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ6" t="n">
         <v>23</v>
@@ -1526,25 +1593,25 @@
         <v>24</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AZ6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA6" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC6" t="n">
         <v>1</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -1657,7 +1724,7 @@
         <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF7" t="n">
         <v>9</v>
@@ -1666,7 +1733,7 @@
         <v>9</v>
       </c>
       <c r="AH7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI7" t="n">
         <v>6</v>
@@ -1696,13 +1763,13 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS7" t="n">
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU7" t="n">
         <v>9</v>
@@ -1726,7 +1793,7 @@
         <v>27</v>
       </c>
       <c r="BB7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -1758,37 +1825,37 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E8" t="n">
         <v>37</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="n">
-        <v>0.649</v>
+        <v>0.661</v>
       </c>
       <c r="H8" t="n">
         <v>48.2</v>
       </c>
       <c r="I8" t="n">
-        <v>36.8</v>
+        <v>37</v>
       </c>
       <c r="J8" t="n">
-        <v>78.3</v>
+        <v>78.40000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.472</v>
       </c>
       <c r="L8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M8" t="n">
         <v>17.6</v>
       </c>
       <c r="N8" t="n">
-        <v>0.364</v>
+        <v>0.369</v>
       </c>
       <c r="O8" t="n">
         <v>23.1</v>
@@ -1797,7 +1864,7 @@
         <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R8" t="n">
         <v>10.4</v>
@@ -1809,13 +1876,13 @@
         <v>40.9</v>
       </c>
       <c r="U8" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>15.9</v>
       </c>
       <c r="W8" t="n">
-        <v>8.9</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
         <v>5.7</v>
@@ -1830,19 +1897,19 @@
         <v>23.7</v>
       </c>
       <c r="AB8" t="n">
-        <v>103.2</v>
+        <v>103.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
         <v>6</v>
@@ -1851,22 +1918,22 @@
         <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK8" t="n">
         <v>6</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AM8" t="n">
         <v>18</v>
       </c>
       <c r="AN8" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1881,7 +1948,7 @@
         <v>23</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT8" t="n">
         <v>17</v>
@@ -1890,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>1</v>
@@ -1902,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>-1</v>
       </c>
       <c r="AD9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE9" t="n">
         <v>16</v>
@@ -2054,10 +2121,10 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AR9" t="n">
         <v>16</v>
@@ -2066,7 +2133,7 @@
         <v>16</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU9" t="n">
         <v>23</v>
@@ -2078,13 +2145,13 @@
         <v>28</v>
       </c>
       <c r="AX9" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AY9" t="n">
         <v>6</v>
       </c>
       <c r="AZ9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA9" t="n">
         <v>25</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E10" t="n">
         <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G10" t="n">
-        <v>0.351</v>
+        <v>0.357</v>
       </c>
       <c r="H10" t="n">
         <v>48.6</v>
@@ -2140,10 +2207,10 @@
         <v>39.3</v>
       </c>
       <c r="J10" t="n">
-        <v>86</v>
+        <v>85.90000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.457</v>
+        <v>0.458</v>
       </c>
       <c r="L10" t="n">
         <v>6.6</v>
@@ -2152,31 +2219,31 @@
         <v>17.8</v>
       </c>
       <c r="N10" t="n">
-        <v>0.372</v>
+        <v>0.373</v>
       </c>
       <c r="O10" t="n">
         <v>22.9</v>
       </c>
       <c r="P10" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.783</v>
+        <v>0.782</v>
       </c>
       <c r="R10" t="n">
         <v>11.8</v>
       </c>
       <c r="S10" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="U10" t="n">
         <v>20.8</v>
       </c>
       <c r="V10" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W10" t="n">
         <v>8.1</v>
@@ -2191,22 +2258,22 @@
         <v>22.2</v>
       </c>
       <c r="AA10" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="AC10" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
       </c>
       <c r="AF10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
         <v>24</v>
@@ -2251,13 +2318,13 @@
         <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV10" t="n">
         <v>19</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -2382,7 +2449,7 @@
         <v>3.6</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE11" t="n">
         <v>7</v>
@@ -2394,16 +2461,16 @@
         <v>8</v>
       </c>
       <c r="AH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
         <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AK11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
         <v>5</v>
@@ -2418,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ11" t="n">
         <v>4</v>
@@ -2427,7 +2494,7 @@
         <v>17</v>
       </c>
       <c r="AS11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>4</v>
@@ -2436,25 +2503,25 @@
         <v>19</v>
       </c>
       <c r="AV11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX11" t="n">
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ11" t="n">
         <v>2</v>
       </c>
       <c r="BA11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
         <v>7</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -2486,25 +2553,25 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E12" t="n">
         <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G12" t="n">
-        <v>0.407</v>
+        <v>0.414</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>38.9</v>
+        <v>38.8</v>
       </c>
       <c r="J12" t="n">
-        <v>86.2</v>
+        <v>86</v>
       </c>
       <c r="K12" t="n">
         <v>0.451</v>
@@ -2513,34 +2580,34 @@
         <v>7.8</v>
       </c>
       <c r="M12" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>23.9</v>
+        <v>23.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.804</v>
+        <v>0.806</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T12" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U12" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="V12" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W12" t="n">
         <v>6.9</v>
@@ -2552,25 +2619,25 @@
         <v>5.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AA12" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB12" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12" t="n">
         <v>19</v>
       </c>
       <c r="AF12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG12" t="n">
         <v>21</v>
@@ -2585,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AL12" t="n">
         <v>6</v>
@@ -2597,7 +2664,7 @@
         <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2609,7 +2676,7 @@
         <v>12</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT12" t="n">
         <v>2</v>
@@ -2630,16 +2697,16 @@
         <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BB12" t="n">
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -2668,70 +2735,70 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>43</v>
       </c>
       <c r="G13" t="n">
-        <v>0.246</v>
+        <v>0.232</v>
       </c>
       <c r="H13" t="n">
         <v>48.6</v>
       </c>
       <c r="I13" t="n">
-        <v>35.9</v>
+        <v>35.7</v>
       </c>
       <c r="J13" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.434</v>
       </c>
       <c r="L13" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M13" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.35</v>
+        <v>0.345</v>
       </c>
       <c r="O13" t="n">
         <v>17.1</v>
       </c>
       <c r="P13" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.748</v>
+        <v>0.749</v>
       </c>
       <c r="R13" t="n">
         <v>11.3</v>
       </c>
       <c r="S13" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T13" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X13" t="n">
         <v>6.1</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z13" t="n">
         <v>20.9</v>
@@ -2740,13 +2807,13 @@
         <v>19.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.5</v>
+        <v>-8.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2758,7 +2825,7 @@
         <v>27</v>
       </c>
       <c r="AH13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2770,13 +2837,13 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
         <v>27</v>
@@ -2791,25 +2858,25 @@
         <v>11</v>
       </c>
       <c r="AS13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AW13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>2</v>
       </c>
       <c r="AY13" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>16</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E14" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F14" t="n">
         <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="H14" t="n">
         <v>48.4</v>
       </c>
       <c r="I14" t="n">
-        <v>40.7</v>
+        <v>40.6</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.478</v>
@@ -2877,31 +2944,31 @@
         <v>6.9</v>
       </c>
       <c r="M14" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="N14" t="n">
-        <v>0.367</v>
+        <v>0.37</v>
       </c>
       <c r="O14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="P14" t="n">
-        <v>27.1</v>
+        <v>26.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.768</v>
+        <v>0.769</v>
       </c>
       <c r="R14" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="S14" t="n">
-        <v>31.9</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="U14" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="V14" t="n">
         <v>13.6</v>
@@ -2919,16 +2986,16 @@
         <v>20.3</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.1</v>
+        <v>23</v>
       </c>
       <c r="AB14" t="n">
-        <v>109.2</v>
+        <v>108.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AD14" t="n">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
         <v>1</v>
@@ -2940,7 +3007,7 @@
         <v>1</v>
       </c>
       <c r="AH14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
         <v>1</v>
@@ -2958,7 +3025,7 @@
         <v>13</v>
       </c>
       <c r="AN14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
@@ -2973,7 +3040,7 @@
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AT14" t="n">
         <v>1</v>
@@ -2994,7 +3061,7 @@
         <v>13</v>
       </c>
       <c r="AZ14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -3310,10 +3377,10 @@
         <v>18</v>
       </c>
       <c r="AJ16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL16" t="n">
         <v>12</v>
@@ -3328,7 +3395,7 @@
         <v>28</v>
       </c>
       <c r="AP16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AQ16" t="n">
         <v>25</v>
@@ -3337,7 +3404,7 @@
         <v>24</v>
       </c>
       <c r="AS16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT16" t="n">
         <v>28</v>
@@ -3349,10 +3416,10 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY16" t="n">
         <v>5</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -3396,16 +3463,16 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E17" t="n">
         <v>28</v>
       </c>
       <c r="F17" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G17" t="n">
-        <v>0.483</v>
+        <v>0.475</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
@@ -3414,7 +3481,7 @@
         <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K17" t="n">
         <v>0.45</v>
@@ -3423,34 +3490,34 @@
         <v>5.9</v>
       </c>
       <c r="M17" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P17" t="n">
-        <v>26.6</v>
+        <v>26.4</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
         <v>12.2</v>
       </c>
       <c r="S17" t="n">
-        <v>29.1</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U17" t="n">
         <v>21.6</v>
       </c>
       <c r="V17" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W17" t="n">
         <v>7.2</v>
@@ -3462,19 +3529,19 @@
         <v>4.6</v>
       </c>
       <c r="Z17" t="n">
-        <v>23.9</v>
+        <v>24</v>
       </c>
       <c r="AA17" t="n">
         <v>23.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="AC17" t="n">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
@@ -3507,7 +3574,7 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP17" t="n">
         <v>7</v>
@@ -3528,7 +3595,7 @@
         <v>10</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
         <v>15</v>
@@ -3537,10 +3604,10 @@
         <v>29</v>
       </c>
       <c r="AY17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ17" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BA17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3729,7 @@
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>25</v>
@@ -3671,7 +3738,7 @@
         <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>5</v>
@@ -3686,10 +3753,10 @@
         <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP18" t="n">
         <v>14</v>
@@ -3701,7 +3768,7 @@
         <v>4</v>
       </c>
       <c r="AS18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AT18" t="n">
         <v>11</v>
@@ -3725,10 +3792,10 @@
         <v>19</v>
       </c>
       <c r="BA18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
         <v>25</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
         <v>32</v>
       </c>
       <c r="G19" t="n">
-        <v>0.439</v>
+        <v>0.429</v>
       </c>
       <c r="H19" t="n">
         <v>48.5</v>
@@ -3778,19 +3845,19 @@
         <v>35.5</v>
       </c>
       <c r="J19" t="n">
-        <v>80.2</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="K19" t="n">
-        <v>0.443</v>
+        <v>0.442</v>
       </c>
       <c r="L19" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="M19" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N19" t="n">
-        <v>0.379</v>
+        <v>0.376</v>
       </c>
       <c r="O19" t="n">
         <v>19.2</v>
@@ -3799,16 +3866,16 @@
         <v>24.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R19" t="n">
         <v>11.1</v>
       </c>
       <c r="S19" t="n">
-        <v>29.3</v>
+        <v>29.4</v>
       </c>
       <c r="T19" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="U19" t="n">
         <v>19.4</v>
@@ -3826,34 +3893,34 @@
         <v>5</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="AA19" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB19" t="n">
         <v>97.90000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="AD19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF19" t="n">
         <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AH19" t="n">
         <v>7</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>15</v>
@@ -3868,22 +3935,22 @@
         <v>7</v>
       </c>
       <c r="AN19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO19" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
         <v>13</v>
       </c>
       <c r="AS19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT19" t="n">
         <v>21</v>
@@ -3904,10 +3971,10 @@
         <v>17</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB19" t="n">
         <v>20</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -3942,25 +4009,25 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6</v>
+        <v>0.593</v>
       </c>
       <c r="H20" t="n">
         <v>48.1</v>
       </c>
       <c r="I20" t="n">
-        <v>35</v>
+        <v>34.9</v>
       </c>
       <c r="J20" t="n">
-        <v>76.7</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="K20" t="n">
         <v>0.456</v>
@@ -3972,31 +4039,31 @@
         <v>19.8</v>
       </c>
       <c r="N20" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O20" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P20" t="n">
-        <v>23.1</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8090000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.4</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="S20" t="n">
         <v>29.4</v>
       </c>
       <c r="T20" t="n">
-        <v>38.8</v>
+        <v>38.7</v>
       </c>
       <c r="U20" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="V20" t="n">
-        <v>12.7</v>
+        <v>12.6</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
@@ -4005,7 +4072,7 @@
         <v>4.3</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z20" t="n">
         <v>20.9</v>
@@ -4014,22 +4081,22 @@
         <v>21</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.3</v>
+        <v>96</v>
       </c>
       <c r="AC20" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AD20" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF20" t="n">
         <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH20" t="n">
         <v>28</v>
@@ -4050,10 +4117,10 @@
         <v>9</v>
       </c>
       <c r="AN20" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
@@ -4065,13 +4132,13 @@
         <v>28</v>
       </c>
       <c r="AS20" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AT20" t="n">
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4092,7 +4159,7 @@
         <v>15</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F21" t="n">
         <v>32</v>
       </c>
       <c r="G21" t="n">
-        <v>0.429</v>
+        <v>0.418</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
       </c>
       <c r="I21" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J21" t="n">
-        <v>87</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="K21" t="n">
         <v>0.445</v>
@@ -4154,28 +4221,28 @@
         <v>28.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O21" t="n">
-        <v>18</v>
+        <v>17.8</v>
       </c>
       <c r="P21" t="n">
-        <v>22.7</v>
+        <v>22.3</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.793</v>
+        <v>0.797</v>
       </c>
       <c r="R21" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S21" t="n">
         <v>31.8</v>
       </c>
       <c r="T21" t="n">
-        <v>42.9</v>
+        <v>42.7</v>
       </c>
       <c r="U21" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="V21" t="n">
         <v>14.7</v>
@@ -4193,19 +4260,19 @@
         <v>20.1</v>
       </c>
       <c r="AA21" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="AB21" t="n">
-        <v>105.8</v>
+        <v>105.5</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD21" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>19</v>
@@ -4214,7 +4281,7 @@
         <v>20</v>
       </c>
       <c r="AH21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI21" t="n">
         <v>5</v>
@@ -4235,16 +4302,16 @@
         <v>20</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AQ21" t="n">
         <v>7</v>
       </c>
       <c r="AR21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS21" t="n">
         <v>7</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ21" t="n">
         <v>6</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -4384,43 +4451,43 @@
         <v>-6.2</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF22" t="n">
         <v>27</v>
       </c>
       <c r="AG22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH22" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AM22" t="n">
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ22" t="n">
         <v>11</v>
@@ -4441,7 +4508,7 @@
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AX22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -4626,13 +4693,13 @@
         <v>18</v>
       </c>
       <c r="AX23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E24" t="n">
         <v>27</v>
       </c>
       <c r="F24" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G24" t="n">
-        <v>0.491</v>
+        <v>0.5</v>
       </c>
       <c r="H24" t="n">
         <v>48.1</v>
@@ -4688,16 +4755,16 @@
         <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>80.5</v>
+        <v>80.59999999999999</v>
       </c>
       <c r="K24" t="n">
-        <v>0.453</v>
+        <v>0.452</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
       </c>
       <c r="M24" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="N24" t="n">
         <v>0.315</v>
@@ -4706,10 +4773,10 @@
         <v>19.1</v>
       </c>
       <c r="P24" t="n">
-        <v>25.8</v>
+        <v>25.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="R24" t="n">
         <v>12.9</v>
@@ -4733,13 +4800,13 @@
         <v>5.4</v>
       </c>
       <c r="Y24" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z24" t="n">
         <v>20.3</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB24" t="n">
         <v>96.2</v>
@@ -4748,31 +4815,31 @@
         <v>0.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AE24" t="n">
         <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AG24" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI24" t="n">
         <v>17</v>
       </c>
       <c r="AJ24" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK24" t="n">
         <v>16</v>
       </c>
       <c r="AL24" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM24" t="n">
         <v>29</v>
@@ -4781,13 +4848,13 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>2</v>
@@ -4802,10 +4869,10 @@
         <v>18</v>
       </c>
       <c r="AV24" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AW24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX24" t="n">
         <v>8</v>
@@ -4814,13 +4881,13 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC24" t="n">
         <v>14</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -4936,7 +5003,7 @@
         <v>13</v>
       </c>
       <c r="AF25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG25" t="n">
         <v>13</v>
@@ -4954,13 +5021,13 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM25" t="n">
         <v>19</v>
       </c>
-      <c r="AM25" t="n">
-        <v>20</v>
-      </c>
       <c r="AN25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AO25" t="n">
         <v>4</v>
@@ -4990,7 +5057,7 @@
         <v>26</v>
       </c>
       <c r="AX25" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>8</v>
@@ -4999,7 +5066,7 @@
         <v>13</v>
       </c>
       <c r="BA25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB25" t="n">
         <v>3</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -5034,46 +5101,46 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E26" t="n">
         <v>35</v>
       </c>
       <c r="F26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G26" t="n">
-        <v>0.648</v>
+        <v>0.636</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L26" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N26" t="n">
         <v>0.382</v>
       </c>
       <c r="O26" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.762</v>
+        <v>0.76</v>
       </c>
       <c r="R26" t="n">
         <v>13.2</v>
@@ -5082,7 +5149,7 @@
         <v>28.2</v>
       </c>
       <c r="T26" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="U26" t="n">
         <v>20.8</v>
@@ -5097,43 +5164,43 @@
         <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="Z26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="AE26" t="n">
         <v>7</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
         <v>7</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
         <v>20</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>10</v>
@@ -5142,13 +5209,13 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
         <v>18</v>
@@ -5163,13 +5230,13 @@
         <v>15</v>
       </c>
       <c r="AU26" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AX26" t="n">
         <v>14</v>
@@ -5181,10 +5248,10 @@
         <v>17</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -5216,16 +5283,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E27" t="n">
         <v>12</v>
       </c>
       <c r="F27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G27" t="n">
-        <v>0.207</v>
+        <v>0.211</v>
       </c>
       <c r="H27" t="n">
         <v>48.6</v>
@@ -5234,28 +5301,28 @@
         <v>36.1</v>
       </c>
       <c r="J27" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="K27" t="n">
         <v>0.446</v>
       </c>
       <c r="L27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="N27" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="O27" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="P27" t="n">
-        <v>25.7</v>
+        <v>25.6</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.803</v>
+        <v>0.805</v>
       </c>
       <c r="R27" t="n">
         <v>10</v>
@@ -5264,7 +5331,7 @@
         <v>28.5</v>
       </c>
       <c r="T27" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="U27" t="n">
         <v>19.9</v>
@@ -5276,25 +5343,25 @@
         <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="Y27" t="n">
         <v>5.2</v>
       </c>
       <c r="Z27" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AB27" t="n">
-        <v>99.40000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="AC27" t="n">
-        <v>-9.5</v>
+        <v>-9.6</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5315,22 +5382,22 @@
         <v>12</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL27" t="n">
         <v>15</v>
       </c>
       <c r="AM27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN27" t="n">
         <v>21</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ27" t="n">
         <v>6</v>
@@ -5351,13 +5418,13 @@
         <v>26</v>
       </c>
       <c r="AW27" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX27" t="n">
         <v>27</v>
       </c>
       <c r="AY27" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ27" t="n">
         <v>28</v>
@@ -5366,7 +5433,7 @@
         <v>10</v>
       </c>
       <c r="BB27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC27" t="n">
         <v>30</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AE28" t="n">
         <v>5</v>
@@ -5491,16 +5558,16 @@
         <v>1</v>
       </c>
       <c r="AI28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM28" t="n">
         <v>8</v>
@@ -5521,7 +5588,7 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT28" t="n">
         <v>20</v>
@@ -5539,7 +5606,7 @@
         <v>24</v>
       </c>
       <c r="AY28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -5691,10 +5758,10 @@
         <v>11</v>
       </c>
       <c r="AO29" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP29" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AQ29" t="n">
         <v>1</v>
@@ -5703,7 +5770,7 @@
         <v>30</v>
       </c>
       <c r="AS29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT29" t="n">
         <v>27</v>
@@ -5712,7 +5779,7 @@
         <v>11</v>
       </c>
       <c r="AV29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW29" t="n">
         <v>29</v>
@@ -5727,7 +5794,7 @@
         <v>4</v>
       </c>
       <c r="BA29" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB29" t="n">
         <v>22</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -5762,28 +5829,28 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F30" t="n">
         <v>23</v>
       </c>
       <c r="G30" t="n">
-        <v>0.596</v>
+        <v>0.589</v>
       </c>
       <c r="H30" t="n">
         <v>48.4</v>
       </c>
       <c r="I30" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J30" t="n">
-        <v>79.8</v>
+        <v>79.7</v>
       </c>
       <c r="K30" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L30" t="n">
         <v>4.8</v>
@@ -5792,28 +5859,28 @@
         <v>14</v>
       </c>
       <c r="N30" t="n">
-        <v>0.344</v>
+        <v>0.342</v>
       </c>
       <c r="O30" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="P30" t="n">
-        <v>28</v>
+        <v>28.2</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.77</v>
+        <v>0.769</v>
       </c>
       <c r="R30" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="S30" t="n">
         <v>29.2</v>
       </c>
       <c r="T30" t="n">
-        <v>40.9</v>
+        <v>40.8</v>
       </c>
       <c r="U30" t="n">
-        <v>24.5</v>
+        <v>24.4</v>
       </c>
       <c r="V30" t="n">
         <v>14.9</v>
@@ -5828,19 +5895,19 @@
         <v>4.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>22.2</v>
+        <v>22.3</v>
       </c>
       <c r="AA30" t="n">
         <v>23.8</v>
       </c>
       <c r="AB30" t="n">
-        <v>102.7</v>
+        <v>102.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE30" t="n">
         <v>9</v>
@@ -5852,13 +5919,13 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI30" t="n">
         <v>7</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5888,7 +5955,7 @@
         <v>22</v>
       </c>
       <c r="AT30" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5900,13 +5967,13 @@
         <v>2</v>
       </c>
       <c r="AX30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AY30" t="n">
         <v>15</v>
       </c>
       <c r="AZ30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA30" t="n">
         <v>1</v>
@@ -5915,7 +5982,7 @@
         <v>7</v>
       </c>
       <c r="BC30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
@@ -6022,19 +6089,19 @@
         <v>-7.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AE31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AF31" t="n">
         <v>27</v>
       </c>
       <c r="AG31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AI31" t="n">
         <v>19</v>
@@ -6058,7 +6125,7 @@
         <v>26</v>
       </c>
       <c r="AP31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ31" t="n">
         <v>20</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-23-2008-09</t>
+          <t>2009-02-23</t>
         </is>
       </c>
     </row>
